--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:10:20+00:00</t>
+    <t>2025-10-09T13:10:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T13:10:27+00:00</t>
+    <t>2025-10-09T15:10:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T15:10:37+00:00</t>
+    <t>2025-10-09T15:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T15:28:39+00:00</t>
+    <t>2025-10-10T07:17:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T07:17:09+00:00</t>
+    <t>2025-10-10T09:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T09:50:55+00:00</t>
+    <t>2025-10-10T15:37:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T15:37:12+00:00</t>
+    <t>2025-10-17T12:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:16:13+00:00</t>
+    <t>2025-11-27T15:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:06:56+00:00</t>
+    <t>2025-11-27T15:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:30:01+00:00</t>
+    <t>2025-11-27T15:46:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:46:48+00:00</t>
+    <t>2025-11-27T16:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:17:21+00:00</t>
+    <t>2025-11-27T16:21:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:21:26+00:00</t>
+    <t>2025-11-27T17:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:08:40+00:00</t>
+    <t>2025-11-28T08:40:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T08:40:21+00:00</t>
+    <t>2025-11-28T10:36:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:36:38+00:00</t>
+    <t>2025-11-28T15:30:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T15:30:37+00:00</t>
+    <t>2025-12-01T13:44:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T13:44:25+00:00</t>
+    <t>2025-12-01T14:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T14:13:41+00:00</t>
+    <t>2025-12-01T14:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T14:29:29+00:00</t>
+    <t>2025-12-01T14:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T14:44:22+00:00</t>
+    <t>2025-12-01T14:57:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T14:57:05+00:00</t>
+    <t>2025-12-01T15:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T15:03:01+00:00</t>
+    <t>2025-12-04T12:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T12:50:12+00:00</t>
+    <t>2025-12-05T08:28:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/375-sfe---ajout-projet-personnalisé/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:28:43+00:00</t>
+    <t>2025-12-11T12:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
